--- a/Cyan-Stars/Assets/Scripts/Gameplay/GalDialogue/Editor/gal模板.xlsx
+++ b/Cyan-Stars/Assets/Scripts/Gameplay/GalDialogue/Editor/gal模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGS\Desktop\work_folder\unity\porject\CyanStars\Cyan-Stars\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGS\Desktop\work_folder\unity\porject\CyanStars\Cyan-Stars\Assets\Scripts\Gameplay\GalDialogue\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C580998E-A59E-4E52-B5E3-84C4FBE74088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4ADE8F-3734-4F79-AC0A-986A59DE0DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
   <si>
     <t>标记</t>
   </si>
@@ -162,9 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VerticalDrawing1</t>
-  </si>
-  <si>
     <t>VerticalDrawing2</t>
   </si>
   <si>
@@ -207,67 +204,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三次方加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三次放减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三次方加速减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超范围三次方减速缓动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数衰减减速反弹缓动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数衰减加速减速反弹缓动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超范围三次方加速缓动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数衰减加速反弹缓动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VerticalDrawing3</t>
-  </si>
-  <si>
-    <t>VerticalDrawing4</t>
-  </si>
-  <si>
-    <t>VerticalDrawing5</t>
-  </si>
-  <si>
-    <t>VerticalDrawing6</t>
-  </si>
-  <si>
-    <t>VerticalDrawing7</t>
-  </si>
-  <si>
-    <t>VerticalDrawing8</t>
-  </si>
-  <si>
-    <t>VerticalDrawing9</t>
-  </si>
-  <si>
-    <t>VerticalDrawing10</t>
-  </si>
-  <si>
-    <t>VerticalDrawing11</t>
+    <t>VerticalDrawing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三次方加速</t>
+  </si>
+  <si>
+    <t>三次方加速减速</t>
+  </si>
+  <si>
+    <t>指数减速</t>
+  </si>
+  <si>
+    <t>指数加速减速</t>
+  </si>
+  <si>
+    <t>指数衰减加速反弹缓动</t>
+  </si>
+  <si>
+    <t>超范围三次方减速缓动</t>
+  </si>
+  <si>
+    <t>指数加速</t>
+  </si>
+  <si>
+    <t>指数衰减加速减速反弹缓动</t>
   </si>
 </sst>
 </file>
@@ -720,14 +686,16 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="63.125" customWidth="1"/>
-    <col min="9" max="10" width="10" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
     <col min="18" max="18" width="14.875" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
@@ -796,13 +764,13 @@
         <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>32</v>
@@ -811,13 +779,13 @@
         <v>30</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>32</v>
@@ -860,36 +828,36 @@
         <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J3" s="1">
         <v>0.5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3">
         <f ca="1">RAND()</f>
-        <v>0.69911015947093968</v>
+        <v>0.10836863435661237</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="1">
         <v>0.9</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R3">
         <f ca="1">RAND()</f>
-        <v>4.4914221548634004E-2</v>
+        <v>0.61610132218091185</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>17</v>
@@ -923,36 +891,36 @@
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1">
         <v>0.3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M20" ca="1" si="0">RAND()</f>
-        <v>0.17366311201245332</v>
+        <v>0.39540758525999609</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="O4" s="1">
         <v>0.7</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R20" ca="1" si="1">RAND()</f>
-        <v>0.70077457649478325</v>
+        <v>0.93104967427047158</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>19</v>
@@ -984,36 +952,36 @@
         <v>100</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1">
         <v>0.2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9154266143966829E-2</v>
+        <v>0.72316015773563047</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="O5" s="1">
         <v>0.4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83400175812455846</v>
+        <v>0.46415014125354115</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>21</v>
@@ -1045,36 +1013,36 @@
         <v>100</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1">
         <v>0.7</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54318315047201293</v>
+        <v>0.54712802793904303</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O6" s="1">
         <v>0.1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4754531062331202</v>
+        <v>0.11543891082800795</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>19</v>
@@ -1084,7 +1052,7 @@
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1096,7 +1064,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1108,36 +1076,36 @@
         <v>100</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1">
         <v>-1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54316100630910258</v>
+        <v>0.68103076466208334</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="O7" s="1">
         <v>-1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89088590448079086</v>
+        <v>0.6398159883006348</v>
       </c>
       <c r="S7" s="1"/>
       <c r="X7" s="1"/>
@@ -1145,7 +1113,7 @@
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -1155,7 +1123,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1167,36 +1135,36 @@
         <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1">
         <v>-1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89145596263477722</v>
+        <v>0.62462118972589842</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="O8" s="1">
         <v>-1</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36802746397581232</v>
+        <v>0.28328447568801296</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>21</v>
@@ -1206,7 +1174,7 @@
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -1216,10 +1184,10 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
@@ -1228,28 +1196,32 @@
         <v>100</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1">
         <v>-1</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73343889989213107</v>
+        <v>0.28477894711287166</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="O9" s="1">
         <v>-1</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11035279852946422</v>
+        <v>6.2711306278861012E-2</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>17</v>
@@ -1269,10 +1241,10 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1281,28 +1253,32 @@
         <v>100</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1">
         <v>-1</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78256366995196824</v>
+        <v>0.93498431708739349</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O10" s="1">
         <v>-1</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89966800925065549</v>
+        <v>0.50658751981425787</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>21</v>
@@ -1322,10 +1298,10 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
@@ -1334,28 +1310,32 @@
         <v>100</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1">
         <v>-1</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82505288714503389</v>
+        <v>3.0340960710428244E-2</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="O11" s="1">
         <v>-1</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7118037734587378</v>
+        <v>0.82974102084536627</v>
       </c>
       <c r="S11" s="1"/>
       <c r="X11" s="1"/>
@@ -1373,7 +1353,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1385,28 +1365,32 @@
         <v>100</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1">
         <v>-1</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2755219639957035</v>
+        <v>0.14785388241648656</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O12" s="1">
         <v>-1</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49260958053631465</v>
+        <v>0.47881386065573939</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>19</v>
@@ -1438,16 +1422,18 @@
         <v>100</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1">
         <v>-1</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69486727317328456</v>
+        <v>1.7475336328651836E-2</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>38</v>
@@ -1456,10 +1442,12 @@
         <v>-1</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13772803401242206</v>
+        <v>0.24795510337894422</v>
       </c>
       <c r="S13" s="1"/>
       <c r="X13" s="1"/>
@@ -1489,28 +1477,32 @@
         <v>100</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1">
         <v>-1</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79732106391527147</v>
+        <v>9.4636258745926405E-2</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="1">
         <v>-1</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="R14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42749064947777848</v>
+        <v>0.53654638199179672</v>
       </c>
       <c r="S14" s="1"/>
       <c r="X14" s="1"/>
@@ -1540,36 +1532,36 @@
         <v>100</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1">
         <v>-1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93340728136508444</v>
+        <v>0.3804417631279734</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="O15" s="1">
         <v>-1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85035281442305144</v>
+        <v>0.96639194202409362</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>17</v>
@@ -1603,36 +1595,36 @@
         <v>100</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1">
         <v>-1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46457339770443518</v>
+        <v>0.2326386212384548</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="O16" s="1">
         <v>-1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90103578265863427</v>
+        <v>0.51953973046869151</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
@@ -1664,36 +1656,36 @@
         <v>100</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1">
         <v>-1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83058787087238228</v>
+        <v>4.0089816994339E-2</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="O17" s="1">
         <v>-1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94279008605067083</v>
+        <v>0.36188485168949502</v>
       </c>
       <c r="S17" s="1"/>
       <c r="X17" s="1"/>
@@ -1723,32 +1715,36 @@
         <v>100</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1">
         <v>-1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99705031976567093</v>
+        <v>0.36535450622836185</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="O18" s="1">
         <v>-1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="R18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6698381696499015</v>
+        <v>0.25681552030735466</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>17</v>
@@ -1782,32 +1778,36 @@
         <v>100</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1">
         <v>-1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0699595058170157E-2</v>
+        <v>0.38088986947523829</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="O19" s="1">
         <v>-1</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="R19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72232343783435671</v>
+        <v>0.57030697391317386</v>
       </c>
       <c r="S19" s="1"/>
       <c r="X19" s="1"/>
@@ -1838,32 +1838,36 @@
         <v>100</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1">
         <v>-1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93869878851126132</v>
+        <v>0.51698741701813022</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="O20" s="1">
         <v>-1</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="R20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17142793028844694</v>
+        <v>3.0582633402858606E-2</v>
       </c>
       <c r="S20" s="1"/>
       <c r="X20" s="1"/>
@@ -1954,6 +1958,11 @@
       <formula>IF($A3="&amp;",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L20 Q3:Q20" xr:uid="{0DA7549F-B0E7-4F84-A163-4B0C72407699}">
+      <formula1>"线性,三次方加速,三次方减速,三次方加速减速,指数加速,指数减速,指数加速减速,超范围三次方加速缓动,超范围三次方减速缓动,超范围三次方加速减速缓动,指数衰减加速反弹缓动,指数衰减减速反弹缓动,指数衰减加速减速反弹缓动"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Cyan-Stars/Assets/Scripts/Gameplay/GalDialogue/Editor/gal模板.xlsx
+++ b/Cyan-Stars/Assets/Scripts/Gameplay/GalDialogue/Editor/gal模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGS\Desktop\work_folder\unity\porject\CyanStars\Cyan-Stars\Assets\Scripts\Gameplay\GalDialogue\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4ADE8F-3734-4F79-AC0A-986A59DE0DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B95E8-E237-42FC-A4A4-53B60593A5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="M3">
         <f ca="1">RAND()</f>
-        <v>0.10836863435661237</v>
+        <v>0.92346377202515539</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>38</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="R3">
         <f ca="1">RAND()</f>
-        <v>0.61610132218091185</v>
+        <v>0.51959985843669521</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>17</v>
@@ -903,8 +903,8 @@
         <v>53</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M20" ca="1" si="0">RAND()</f>
-        <v>0.39540758525999609</v>
+        <f t="shared" ref="M4:M21" ca="1" si="0">RAND()</f>
+        <v>0.25841254136816483</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>38</v>
@@ -919,8 +919,8 @@
         <v>50</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R20" ca="1" si="1">RAND()</f>
-        <v>0.93104967427047158</v>
+        <f t="shared" ref="R4:R21" ca="1" si="1">RAND()</f>
+        <v>0.1807379893028247</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>19</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72316015773563047</v>
+        <v>0.15145690889990571</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>38</v>
@@ -981,7 +981,7 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46415014125354115</v>
+        <v>0.96263622505357449</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>21</v>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54712802793904303</v>
+        <v>0.57827304667219848</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>52</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11543891082800795</v>
+        <v>0.16700408395058186</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>19</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68103076466208334</v>
+        <v>0.58969742895890054</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6398159883006348</v>
+        <v>0.89086476820079119</v>
       </c>
       <c r="S7" s="1"/>
       <c r="X7" s="1"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62462118972589842</v>
+        <v>0.15965692263204945</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>38</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28328447568801296</v>
+        <v>0.55401246225555434</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>21</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28477894711287166</v>
+        <v>0.60984167296029079</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>52</v>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2711306278861012E-2</v>
+        <v>0.631757582715331</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>17</v>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93498431708739349</v>
+        <v>0.86454260925475923</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>38</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50658751981425787</v>
+        <v>0.52048976650157563</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>21</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0340960710428244E-2</v>
+        <v>0.39216812228329756</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>38</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82974102084536627</v>
+        <v>0.4702666241714395</v>
       </c>
       <c r="S11" s="1"/>
       <c r="X11" s="1"/>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14785388241648656</v>
+        <v>0.4267864247842269</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>52</v>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47881386065573939</v>
+        <v>0.35499730059344803</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>19</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7475336328651836E-2</v>
+        <v>0.31361667986946629</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>38</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24795510337894422</v>
+        <v>0.2737822062338976</v>
       </c>
       <c r="S13" s="1"/>
       <c r="X13" s="1"/>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4636258745926405E-2</v>
+        <v>0.62127681670305746</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>38</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53654638199179672</v>
+        <v>0.75489817648848156</v>
       </c>
       <c r="S14" s="1"/>
       <c r="X14" s="1"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3804417631279734</v>
+        <v>0.56039055683352734</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>38</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96639194202409362</v>
+        <v>8.8817382401926048E-2</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>17</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2326386212384548</v>
+        <v>0.36643738718846386</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>38</v>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51953973046869151</v>
+        <v>0.75984746415483506</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0089816994339E-2</v>
+        <v>0.88342469101755339</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>52</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36188485168949502</v>
+        <v>0.77567750019995552</v>
       </c>
       <c r="S17" s="1"/>
       <c r="X17" s="1"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36535450622836185</v>
+        <v>0.85155388082897077</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>38</v>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25681552030735466</v>
+        <v>3.3059456449706093E-2</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>17</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38088986947523829</v>
+        <v>0.44764491279308383</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>38</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57030697391317386</v>
+        <v>0.2892711571105735</v>
       </c>
       <c r="S19" s="1"/>
       <c r="X19" s="1"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51698741701813022</v>
+        <v>0.39843949325721872</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>38</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0582633402858606E-2</v>
+        <v>0.72137697667980505</v>
       </c>
       <c r="S20" s="1"/>
       <c r="X20" s="1"/>
@@ -1903,12 +1903,20 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
+      <c r="M21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31071981060133369</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1">
         <v>-1</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
+      <c r="R21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69272293986372835</v>
+      </c>
       <c r="S21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Z21" s="1"/>
